--- a/DATA/presidents.xlsx
+++ b/DATA/presidents.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jstrick/Desktop/py3forsci/DATA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D94B2D-7234-9640-9C97-D1F0A5C9A77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="988" visibility="visible" windowHeight="11480" windowWidth="22980" xWindow="0" yWindow="460"/>
+    <workbookView xWindow="67460" yWindow="3900" windowWidth="32400" windowHeight="17120" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="US Presidents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="President Names" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="US Presidents" sheetId="1" r:id="rId1"/>
+    <sheet name="President Names" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
-  <si>
-    <t>Term</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="280">
+  <si>
+    <t>TERM NUMBER</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -860,22 +866,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt formatCode="mm/dd/yy" numFmtId="164"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -891,18 +897,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1202,33 +1218,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.1640625"/>
-    <col customWidth="1" max="2" min="2" width="15.5"/>
-    <col customWidth="1" max="3" min="3" width="23.5"/>
-    <col customWidth="1" max="5" min="4" width="13.5"/>
-    <col customWidth="1" max="6" min="6" width="29.83203125"/>
-    <col customWidth="1" max="7" min="7" width="17"/>
-    <col customWidth="1" max="8" min="8" width="17.6640625"/>
-    <col customWidth="1" max="9" min="9" width="16.33203125"/>
-    <col customWidth="1" max="10" min="10" width="26.83203125"/>
-    <col customWidth="1" max="1025" min="11" width="14.5"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+    <col min="11" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1274,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1292,8 +1306,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1324,8 +1338,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1337,7 +1351,7 @@
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -1356,8 +1370,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1369,7 +1383,7 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
@@ -1388,8 +1402,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1401,7 +1415,7 @@
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F6" t="s">
@@ -1420,8 +1434,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1433,7 +1447,7 @@
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
@@ -1452,8 +1466,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1465,7 +1479,7 @@
       <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F8" t="s">
@@ -1484,8 +1498,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1497,7 +1511,7 @@
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
@@ -1516,8 +1530,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1529,7 +1543,7 @@
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F10" t="s">
@@ -1548,8 +1562,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1561,7 +1575,7 @@
       <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F11" t="s">
@@ -1580,8 +1594,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1593,7 +1607,7 @@
       <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F12" t="s">
@@ -1612,8 +1626,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1625,7 +1639,7 @@
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
@@ -1644,8 +1658,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1657,7 +1671,7 @@
       <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F14" t="s">
@@ -1676,8 +1690,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1689,7 +1703,7 @@
       <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F15" t="s">
@@ -1708,8 +1722,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1721,7 +1735,7 @@
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F16" t="s">
@@ -1740,8 +1754,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1753,7 +1767,7 @@
       <c r="D17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F17" t="s">
@@ -1772,8 +1786,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1785,7 +1799,7 @@
       <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F18" t="s">
@@ -1804,8 +1818,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1817,7 +1831,7 @@
       <c r="D19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F19" t="s">
@@ -1836,8 +1850,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1849,7 +1863,7 @@
       <c r="D20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
@@ -1868,8 +1882,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1881,7 +1895,7 @@
       <c r="D21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F21" t="s">
@@ -1900,8 +1914,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1913,7 +1927,7 @@
       <c r="D22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F22" t="s">
@@ -1932,8 +1946,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1945,7 +1959,7 @@
       <c r="D23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F23" t="s">
@@ -1964,8 +1978,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1977,7 +1991,7 @@
       <c r="D24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>152</v>
       </c>
       <c r="F24" t="s">
@@ -1996,8 +2010,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2009,7 +2023,7 @@
       <c r="D25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F25" t="s">
@@ -2028,8 +2042,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2041,7 +2055,7 @@
       <c r="D26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F26" t="s">
@@ -2060,8 +2074,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2073,7 +2087,7 @@
       <c r="D27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F27" t="s">
@@ -2092,8 +2106,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2105,7 +2119,7 @@
       <c r="D28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F28" t="s">
@@ -2124,8 +2138,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2137,7 +2151,7 @@
       <c r="D29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F29" t="s">
@@ -2156,8 +2170,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2169,7 +2183,7 @@
       <c r="D30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F30" t="s">
@@ -2188,8 +2202,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2201,7 +2215,7 @@
       <c r="D31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>187</v>
       </c>
       <c r="F31" t="s">
@@ -2220,8 +2234,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2233,7 +2247,7 @@
       <c r="D32" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F32" t="s">
@@ -2252,8 +2266,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2265,7 +2279,7 @@
       <c r="D33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F33" t="s">
@@ -2284,8 +2298,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2297,7 +2311,7 @@
       <c r="D34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F34" t="s">
@@ -2316,8 +2330,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2329,7 +2343,7 @@
       <c r="D35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>212</v>
       </c>
       <c r="F35" t="s">
@@ -2348,8 +2362,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2361,7 +2375,7 @@
       <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F36" t="s">
@@ -2380,8 +2394,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2393,7 +2407,7 @@
       <c r="D37" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>223</v>
       </c>
       <c r="F37" t="s">
@@ -2412,8 +2426,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2425,7 +2439,7 @@
       <c r="D38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F38" t="s">
@@ -2444,8 +2458,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2457,7 +2471,7 @@
       <c r="D39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>236</v>
       </c>
       <c r="F39" t="s">
@@ -2476,8 +2490,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2508,8 +2522,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2521,7 +2535,7 @@
       <c r="D41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F41" t="s">
@@ -2540,8 +2554,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2553,7 +2567,7 @@
       <c r="D42" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="4">
         <v>43434</v>
       </c>
       <c r="F42" t="s">
@@ -2572,8 +2586,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2604,8 +2618,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2636,8 +2650,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2668,8 +2682,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="n">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2701,34 +2715,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>73</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>99</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>117</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>124</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>62</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>143</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>156</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>167</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>173</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>179</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>184</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>191</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>161</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>209</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>216</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>112</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>226</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>233</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>240</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>247</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>254</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>259</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>254</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>270</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>276</v>
       </c>
@@ -3089,6 +3093,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>